--- a/CKD - SD model/cross validation.xlsx
+++ b/CKD - SD model/cross validation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csucloudservices-my.sharepoint.com/personal/sally_thompson_mlcsu_nhs_uk/Documents/Documents/1210 Renal NHP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csucloudservices-my.sharepoint.com/personal/sally_thompson_mlcsu_nhs_uk/Documents/Documents/1210 Renal NHP/github repo/renal-services/CKD - SD model/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="382" documentId="8_{FD138CB8-6049-4D09-B623-06F25815DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E3E985-CC3F-4433-B224-00320214A66E}"/>
@@ -4373,7 +4373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102C21C1-1F0B-4FB7-94E6-78262B5BFA4B}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
